--- a/Doc/ProductBacklog.xlsx
+++ b/Doc/ProductBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco.Rdrgs2\Code\TPI_Marco_Rodrigues\NimRL\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8371A267-0DE4-4350-8C66-8ABC182D4F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA7E7E-BEAD-4CC3-919F-343F92B0E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{0EDCF9DF-C19D-4084-9E67-FCAC34E6D3F1}"/>
   </bookViews>
@@ -74,62 +74,62 @@
     <t>En tant qu'utilisateur je dois pouvoir comprendre comment l'IA s'auto améliore</t>
   </si>
   <si>
-    <t>06 : Comprehention de l'apprentissage automatique (Auto amélioration)</t>
-  </si>
-  <si>
     <t>07 : Sauvegarde de l'état de l'application</t>
   </si>
   <si>
     <t>En tant qu'utilisateur je veux que l'application garde son état lors de la fermeture</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur je veux avoir accés a un manuel utilisateur depuis l'application</t>
-  </si>
-  <si>
-    <t>08 : Accés au manuel utilisateur</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je dois pouvoir choisir entre trois modes de jeu differents :
+    <t>En tant qu'utilisateur je dois avoir un affichage des allumettes de la partie courante</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je dois avoir un affichage qui m'indique, pour la partie courante, le joueur qui doit jouer</t>
+  </si>
+  <si>
+    <t>09 : Affichage des allumettes</t>
+  </si>
+  <si>
+    <t>10 : Affichage du joueur courant</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je dois avoir un affichage du nombre d'allumettes que les joueurs ont pris</t>
+  </si>
+  <si>
+    <t>11 : Nombre d'allumettes prises</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je dois pouvoir comprendre comment l'IA prend des décisions</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je dois pouvoir choisir entre trois modes de jeu différents :
      - Joueur Humain contre Joueur Humain
      - Joueur Humain contre Joueur IA
      - Joueur IA contre Joueur IA</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur je dois pouvoir controller un Joueur Humain</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je dois pouvoir faire des parties automatiques ( mode Joueur IA  contre Joueur IA )</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je dois avoir un affichage des allumettes de la partie courante</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je dois avoir un affichage qui m'indique, pour la partie courante, le joueur qui doit jouer</t>
-  </si>
-  <si>
-    <t>09 : Affichage des allumettes</t>
-  </si>
-  <si>
-    <t>10 : Affichage du joueur courant</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je dois avoir un affichage du nombre d'allumettes que les joueurs ont pris</t>
-  </si>
-  <si>
-    <t>11 : Nombre d'allumettes prises</t>
-  </si>
-  <si>
-    <t>05 : Comprehention de l'apprentissage automatique (Décisions)</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je dois pouvoir comprendre comment l'IA prend des décisions</t>
+    <t>En tant qu'utilisateur je dois pouvoir faire des parties automatiques (mode Joueur IA  contre Joueur IA)</t>
+  </si>
+  <si>
+    <t>05 : Compréhension de l'apprentissage automatique (Décisions)</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je dois pouvoir contrôler un Joueur Humain</t>
+  </si>
+  <si>
+    <t>06 : Compréhension de l'apprentissage automatique (Auto amélioration)</t>
+  </si>
+  <si>
+    <t>08 : Accès au manuel utilisateur</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux avoir accès a un manuel utilisateur depuis l'application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +139,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF374057"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF374057"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -172,8 +165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF374057"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFCC66"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -263,11 +272,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF374057"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF374057"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF374057"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374057"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF374057"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF374057"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374057"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF374057"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF374057"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374057"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374057"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF374057"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374057"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374057"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF374057"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF374057"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374057"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF374057"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF374057"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374057"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF374057"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,22 +368,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -301,6 +413,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF6E370"/>
+      <color rgb="FFFFCC66"/>
       <color rgb="FFFB7405"/>
       <color rgb="FF374057"/>
     </mruColors>
@@ -615,313 +729,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F2B3C1-F446-4C1A-9E7D-546AFE51B096}">
   <dimension ref="B1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
+    <row r="3" spans="2:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+    </row>
     <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+    <row r="7" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+    </row>
     <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+    </row>
     <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+    </row>
     <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+    </row>
     <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="28" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+    </row>
     <row r="30" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
+    <row r="35" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="11"/>
+    </row>
     <row r="38" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>23</v>
+      <c r="B38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>21</v>
+      <c r="B39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+    </row>
     <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
+      <c r="B42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+    </row>
     <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7"/>
+      <c r="B48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
